--- a/샘플데이터/양식샘플-학사정보 테이블명세(2021-05-04).xlsx
+++ b/샘플데이터/양식샘플-학사정보 테이블명세(2021-05-04).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694EA1C3-6AD9-493B-99B7-91B40D93679A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFC01EF-1721-401D-9FD0-F26251BBF068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 테이블 명세" sheetId="2" r:id="rId1"/>
     <sheet name="학과 테이블" sheetId="3" r:id="rId2"/>
-    <sheet name="성적테이블" sheetId="4" r:id="rId3"/>
-    <sheet name="과목 테이블" sheetId="5" r:id="rId4"/>
+    <sheet name="과목 테이블" sheetId="5" r:id="rId3"/>
+    <sheet name="성적테이블" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -59,75 +59,75 @@
   </si>
   <si>
     <t>테이블명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>테이블 명세서</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>작성일</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>page</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>system</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>작성자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>테이블 설명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NO</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>열 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>데이터 형식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Column</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>오라클형식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NULL ?</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>기본키</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>외래키</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FK 테이블 이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FK 열이름</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>비고</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>tbl_student</t>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>st_dcode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>학과정보</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,6 +267,10 @@
   </si>
   <si>
     <t>sc_sbcode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_dpcode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,13 +306,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -381,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -565,6 +558,32 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -581,102 +600,102 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -962,21 +981,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB3EFD7-6B67-45E6-A533-5C08C593CE97}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -1615,372 +1630,372 @@
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
+      <c r="E7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
+      <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
+      <c r="D11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="17"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
+      <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="17"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="17"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="17"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="17"/>
     </row>
     <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
+      <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
+      <c r="B18" s="6">
         <v>13</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="17"/>
     </row>
     <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
     </row>
     <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
+      <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="17"/>
     </row>
     <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2002,20 +2017,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C29AB5-AE33-46CB-9E07-1D02AF4CD2D8}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -2654,360 +2666,360 @@
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3026,23 +3038,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AF462-A338-4EF2-84C6-B7900A0D20FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009078D-9C31-4EF7-9935-61B74CB83BE4}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L21"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -3681,360 +3690,354 @@
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="I2" s="27"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="D7" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="17"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="17"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="17"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="17"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
+        <v>9</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="17"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
+        <v>10</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="17"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4053,23 +4056,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0009078D-9C31-4EF7-9935-61B74CB83BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0AF462-A338-4EF2-84C6-B7900A0D20FA}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L21"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="6.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.625" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.75" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
@@ -4708,363 +4708,369 @@
   <sheetData>
     <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="27"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6">
+        <v>7</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="L2" s="21"/>
-    </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6">
         <v>12</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="27" t="s">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6">
         <v>13</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="29"/>
-    </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="30" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6">
         <v>14</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="11">
         <v>16</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9">
-        <v>2</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="12"/>
-    </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>5</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="12"/>
-    </row>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>6</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>7</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="12"/>
-    </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>8</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="12"/>
-    </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="12"/>
-    </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9">
-        <v>10</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="12"/>
-    </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="9">
-        <v>12</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="12"/>
-    </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="9">
-        <v>13</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9">
-        <v>14</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="12"/>
-    </row>
-    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="12"/>
-    </row>
-    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="14">
-        <v>16</v>
-      </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="16"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
